--- a/data/trans_dic/p64d1_r-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 24,45</t>
+          <t>10,62; 24,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,34; 66,35</t>
+          <t>43,67; 67,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,76; 39,59</t>
+          <t>24,42; 39,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,82</t>
+          <t>19,0; 25,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,45; 42,38</t>
+          <t>34,99; 42,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,74; 32,14</t>
+          <t>26,84; 32,06</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,02; 32,45</t>
+          <t>23,71; 32,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,66; 38,34</t>
+          <t>30,66; 38,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,3; 34,71</t>
+          <t>28,18; 34,06</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,79; 26,01</t>
+          <t>20,89; 26,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,65; 41,37</t>
+          <t>35,63; 41,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,98; 32,03</t>
+          <t>28,35; 32,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,62; 24,11</t>
+          <t>10,23; 24,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,67; 67,16</t>
+          <t>43,34; 66,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 39,88</t>
+          <t>24,76; 39,59</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,0; 25,53</t>
+          <t>19,24; 25,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,99; 42,39</t>
+          <t>35,45; 42,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,84; 32,06</t>
+          <t>26,74; 32,14</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,71; 32,32</t>
+          <t>24,02; 32,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,66; 38,57</t>
+          <t>30,66; 38,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,18; 34,06</t>
+          <t>28,3; 34,71</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,89; 26,1</t>
+          <t>20,79; 26,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,63; 41,12</t>
+          <t>35,65; 41,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,35; 32,07</t>
+          <t>27,98; 32,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>53,46%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,19%</t>
+          <t>29,81%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,23; 24,45</t>
+          <t>9,83; 23,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>43,34; 66,35</t>
+          <t>42,47; 64,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,76; 39,59</t>
+          <t>23,45; 37,52</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>27,86%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 25,82</t>
+          <t>10,48; 24,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,45; 42,38</t>
+          <t>34,84; 52,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,74; 32,14</t>
+          <t>19,73; 34,28</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,9%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>34,11%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>30,73%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,02; 32,45</t>
+          <t>23,36; 31,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,66; 38,34</t>
+          <t>30,42; 37,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,3; 34,71</t>
+          <t>27,84; 34,14</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,06%</t>
+          <t>39,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,08%</t>
+          <t>28,72%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,79; 26,01</t>
+          <t>14,23; 24,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,65; 41,37</t>
+          <t>35,37; 49,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,98; 32,03</t>
+          <t>22,44; 32,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p64d1_r-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/p64d1_r-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,83; 23,9</t>
+          <t>10,42; 23,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>42,47; 64,59</t>
+          <t>41,69; 63,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,45; 37,52</t>
+          <t>23,6; 36,92</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 24,06</t>
+          <t>10,2; 24,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,84; 52,84</t>
+          <t>34,77; 54,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,73; 34,28</t>
+          <t>20,58; 34,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,36; 31,86</t>
+          <t>23,28; 32,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,42; 37,94</t>
+          <t>30,45; 38,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,84; 34,14</t>
+          <t>27,56; 33,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,23; 24,54</t>
+          <t>13,98; 24,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,37; 49,54</t>
+          <t>35,29; 49,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,44; 32,57</t>
+          <t>22,45; 33,02</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se traslada al trabajo o actividad habitual de forma activa</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20913</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>42450</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>63363</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13765; 31275</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33537; 51080</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>50171; 78479</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>263069</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>385312</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>648381</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>140948; 332007</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>328549; 514969</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>479020; 795947</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>122748</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>148495</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>271243</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>104107; 144063</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>132582; 169754</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>243219; 295183</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>406730</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>576256</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>982987</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>274337; 478559</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>515546; 716337</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>768399; 1130176</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>